--- a/Audits/sommaireAudit1.xlsx
+++ b/Audits/sommaireAudit1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>No tâche</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Statut</t>
   </si>
   <si>
-    <t>En cours</t>
-  </si>
-  <si>
     <t>Création de l'écran «créer un compte»</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>Création des classes mères, …</t>
-  </si>
-  <si>
-    <t>Attribué</t>
   </si>
   <si>
     <t>Image du personnage</t>
@@ -539,7 +533,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,17 +569,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,10 +587,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -605,7 +599,7 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -623,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -643,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -661,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -681,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -699,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -719,7 +713,7 @@
         <v>1.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -737,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -755,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,10 +757,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -775,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,10 +777,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -795,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,10 +797,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -815,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
@@ -833,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
@@ -851,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -869,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,7 +871,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
@@ -887,7 +881,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -905,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
